--- a/data/02_intermediate/cleaned_Benjamin_Epps_songs.xlsx
+++ b/data/02_intermediate/cleaned_Benjamin_Epps_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de merde Le meurtre est excellent donc les victimes montrent de l'admiration Argent et agonie, chaos et harmonie C'est la guerre, prépare le fusil mais mets pas le nez dehors J'suis bien l'animal le plus dangereux, fuck les négros opp Un million, deux millions, trois millions, quatre J'veux les lingots, ta bitch fait un week-end à Saint-Domingo Les fans impatients m'demandent tu viens d'où ? Fuck tes questions, j'ai d'la famille chez les hindous Ça roule genre lickin'it, balaise comme Yékini Marine dans un burkini, Diam's dans un bikini J'ai l'flow de Pablo, pas de Medellin coño J'te parle du négro qu'a fait les tableaux Mon espagnol est mauvais mais la mula hablo Ça y est, ils essaient les mimiques, j'suis l'meilleur, ça fait une minute check La cocaïne dans tes narines, enfariné t'as la rhinite oui Mec j'ai la barre, la mano, t'inquiète on n'opérera jamais avant minuit Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne, pas de compèt' on les goom goom Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom OK Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne pas de compèt' on les goom laisse-moi prendre Dollar dollar bill, y'all okay You might also like J'vais les éclater, sont claqués , j'veux les plaques et mes négros savent, collectionnent les packs et j'ai pas tes packs, négros sont pas prêts Le flow de Pac et de Biggie, pas pour les pâtes mais les papiers Mon câble dans le cul de Iggy capte, on n'est pas pour les pactes Donc Mocabe on est quatre, dans tous les cas, tous les gars On les capte, no cap on est cap', et dans les recoins on les tape Bitches veulent vraiment des Epps, rappeurs veulent vraiment des claques Renoi, j'suis vraiment le chef, j'vais chercher la ville Calmes mais crois pas qu'on est doux, tu m'salues, tu m'connais d'où ? J'ai grandi à Bellevue mais j'connais du monde à Honeydew Crack et cocaïne, non, négro j'te vends un concept Ramasse c'que les cons jettent, épongettes dans les J'suis ambidextre comme Clay Gauche, droite et j'valide, il faut comme an, an Si j'balance des piques dans les chansons tu peux pallier Si j'dis j'suis meilleur rappeur de France, tu peux pas l'nier nan Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne, pas de compèt' on les goom goom Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom OK Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne pas de compèt' on les goom laisse-moi prendre Dollar dollar bill, y'all okay3</t>
+          <t>Auditeurs et auditrices de c'rap de merde Le meurtre est excellent donc les victimes montrent de l'admiration Argent et agonie, chaos et harmonie C'est la guerre, prépare le fusil mais mets pas le nez dehors J'suis bien l'animal le plus dangereux, fuck les négros opp Un million, deux millions, trois millions, quatre J'veux les lingots, ta bitch fait un week-end à Saint-Domingo Les fans impatients m'demandent tu viens d'où ? Fuck tes questions, j'ai d'la famille chez les hindous Ça roule genre lickin'it, balaise comme Yékini Marine dans un burkini, Diam's dans un bikini J'ai l'flow de Pablo, pas de Medellin coño J'te parle du négro qu'a fait les tableaux Mon espagnol est mauvais mais la mula hablo Ça y est, ils essaient les mimiques, j'suis l'meilleur, ça fait une minute check La cocaïne dans tes narines, enfariné t'as la rhinite oui Mec j'ai la barre, la mano, t'inquiète on n'opérera jamais avant minuit Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne, pas de compèt' on les goom goom Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom OK Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne pas de compèt' on les goom laisse-moi prendre Dollar dollar bill, y'all okay J'vais les éclater, sont claqués , j'veux les plaques et mes négros savent, collectionnent les packs et j'ai pas tes packs, négros sont pas prêts Le flow de Pac et de Biggie, pas pour les pâtes mais les papiers Mon câble dans le cul de Iggy capte, on n'est pas pour les pactes Donc Mocabe on est quatre, dans tous les cas, tous les gars On les capte, no cap on est cap', et dans les recoins on les tape Bitches veulent vraiment des Epps, rappeurs veulent vraiment des claques Renoi, j'suis vraiment le chef, j'vais chercher la ville Calmes mais crois pas qu'on est doux, tu m'salues, tu m'connais d'où ? J'ai grandi à Bellevue mais j'connais du monde à Honeydew Crack et cocaïne, non, négro j'te vends un concept Ramasse c'que les cons jettent, épongettes dans les J'suis ambidextre comme Clay Gauche, droite et j'valide, il faut comme an, an Si j'balance des piques dans les chansons tu peux pallier Si j'dis j'suis meilleur rappeur de France, tu peux pas l'nier nan Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne, pas de compèt' on les goom goom Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom OK Membré comme les renois dans les clips blacked, je goom goom Venu prendre la couronne pas de compèt' on les goom laisse-moi prendre Dollar dollar bill, y'all okay3</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dieu bénisse les enfants, ils sont le futur J'ai passé 20 ans, j'ai fait le plus dur J'suis inquiet pour mes neveux et nièces, c'est violent à l'extérieur Ils sont noirs, pour le monde entier, ils sont inférieurs C'est la merde, personne n'est gentil Les dessins animés nous ont menti Pédophiles et prêtres pas repentis Combien de gamins anéantis ? J'vais élever des lions, pas des ients-cli Donc on fait les sous pour éviter les coups C'est pour ça qu'ma mère nous tirait les joues Gamins et échec, c'est un lapsus Pour élever nos enfants, pas b'soin d'un Bac plus Trop de pervers sur le net, fais attention J'ai un fusil au cas où un négro te cherche Trop de parents démissionnent donc les démons se servent Regarde comment les gosses se perdent Dieu bénisse les enfants Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend Dieu bénisse les gosses Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend You might also like Traîne pas dehors le soir, y a rien de plus qu'en journée À part des garçons qui veulent juste te détourner Je sais de quoi je parle, j'y ai plus que séjourné Si j'avais pas eu des frères, j'aurais mal tourné Salud à tous les parents qui font juste leur job Qui assument, qui éduquent et nourrissent leurs gosses À ceux qu'ont laissé tomber les leurs, que Dieu vous punisse Prendre ses responsabilités demande de l'habileté Fallait pas cracher négro, c'est juste la vérité Pour tous les enfants, peu importe la couleur, c'est les mêmes Dis leur qu'on les protège fort, qu'on les aime Faut pas sécher les cours, faut écouter les grands Reste loin des réseaux sociaux, c'est la merde, c'est un plan On vit dans un monde de lâches, j'dois protéger les miens Que jamais Dieu ne brise ce lien donc Que Dieu bénisse les enfants Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend Dieu bénisse les gosses Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend, qu'on les aime Au regard, à l'amour, au partage, au sensible, dans un bouquet de vérités qui offre la promesse d'un être sage, dont le son de la voix, l'innocence, l'espérance ne me trahissent pas. Oui, je te reconnais là. Dans un bain d'insouciance où la vie est joie, où la vie est chance. Oui quand pour toi, vivre égal allégresse. Au fond de moi, vivre est leçon de sagesse</t>
+          <t>Dieu bénisse les enfants, ils sont le futur J'ai passé 20 ans, j'ai fait le plus dur J'suis inquiet pour mes neveux et nièces, c'est violent à l'extérieur Ils sont noirs, pour le monde entier, ils sont inférieurs C'est la merde, personne n'est gentil Les dessins animés nous ont menti Pédophiles et prêtres pas repentis Combien de gamins anéantis ? J'vais élever des lions, pas des ients-cli Donc on fait les sous pour éviter les coups C'est pour ça qu'ma mère nous tirait les joues Gamins et échec, c'est un lapsus Pour élever nos enfants, pas b'soin d'un Bac plus Trop de pervers sur le net, fais attention J'ai un fusil au cas où un négro te cherche Trop de parents démissionnent donc les démons se servent Regarde comment les gosses se perdent Dieu bénisse les enfants Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend Dieu bénisse les gosses Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend Traîne pas dehors le soir, y a rien de plus qu'en journée À part des garçons qui veulent juste te détourner Je sais de quoi je parle, j'y ai plus que séjourné Si j'avais pas eu des frères, j'aurais mal tourné Salud à tous les parents qui font juste leur job Qui assument, qui éduquent et nourrissent leurs gosses À ceux qu'ont laissé tomber les leurs, que Dieu vous punisse Prendre ses responsabilités demande de l'habileté Fallait pas cracher négro, c'est juste la vérité Pour tous les enfants, peu importe la couleur, c'est les mêmes Dis leur qu'on les protège fort, qu'on les aime Faut pas sécher les cours, faut écouter les grands Reste loin des réseaux sociaux, c'est la merde, c'est un plan On vit dans un monde de lâches, j'dois protéger les miens Que jamais Dieu ne brise ce lien donc Que Dieu bénisse les enfants Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend Dieu bénisse les gosses Dieu bénisse les enfants, les enfants Dis à ceux qui pleurent qu'on les entend, qu'on les aime Au regard, à l'amour, au partage, au sensible, dans un bouquet de vérités qui offre la promesse d'un être sage, dont le son de la voix, l'innocence, l'espérance ne me trahissent pas. Oui, je te reconnais là. Dans un bain d'insouciance où la vie est joie, où la vie est chance. Oui quand pour toi, vivre égal allégresse. Au fond de moi, vivre est leçon de sagesse</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de merde Let's go Booba a sorti l'dernier album, ça y est maint'nant, j'peux prendre le trône Vu qu'tout l'monde veut tester mon chrome Oublie les restes, j'veux le filet-mignon, le jus et le beurre Il t'faut le masque et les boules Quies, j'suis le bruit et l'odeur Ts MCs rappent pareil, limite c'st d'la natation synchronisée donc le game veut m'introniser let's go Ils auront pas un rond, re-noi écoute bien, l'avarice, c'est le seul vice qui ne coûte rien Va sous la table, j'distribue les parts vrai, j'ai la fève, j'ai créé Mocabe J'suis la chèvre, cinq mille euros le feat, fais l'numéro, j'prends l'dinero, le shit Oublie pas d'louer le gîte, évidemment, logique What the fuck, qu'on m'explique, tu m'en veux parce que j'fuck ton ex, fils, oublie la jalousie ils ont essayé, ils ont voulu me rabaisser, j'vais raviver les tensions, mon shit c'est un AVC Agenouille-toi devant sa majesté, prends la main et embrasse la bague, les gars m'appellent Notorious Tous mes gens sont prêts, tous mes gens sont frais, que les haineux prennent des notes Appelle-moi Monsieur Epps, oui j'suis pas ton pote nan Souffre quand mes gens et moi on parle en code ? han han Et y a plein de meufs ce soir qui pourraient avoir mon bébé let's go, bébé You might also like J'suis Biggie, j'connais Diggy, j'suis pas l'genre à flirt avec la 'sique de Iggy En vacances dans le Midi, Saint-Tropez avec Sean, Puff et Diddy han et ta nana qui m'fait des guiliguilis han Alors donne-moi un peu d'respect, faire rentrer les sous, c'est à ça que je m'évertue Fuir les vices et pratiquer la vertu han, à six ans, mon père m'a acheté mon premier BMX J'en ai fait profiter mes dawgs comme si j'étais DMX En c'qui concerne ma voix, je n'ai aucun complexe, j'traine avec Quentax, tes gens saignent, trainent avec Tampax J'vais les guider, j'vais donner le maximum, j'explose, mets surtout pas le contact histoire vraie J'suis pas un phénomène de mode, j'suis un phénomène dis leur négro Certains d'vos gens se vantent d'avoir fait le même laisse-les parler J'connais pas un re-noi qui aie fait de même, prosterne-toi devant sa majesté, c'mon Agenouille-toi devant sa majesté, prends la main et embrasse la bague, les gars m'appellent Notorious Tous mes gens sont prêts, tous mes gens sont frais, que les haineux prennent des notes Appelle-moi Monsieur Epps, oui j'suis pas ton pote nan Souffre quand mes gens et moi on parle en code ? Eppsito Et y a plein de meufs ce soir qui pourraient avoir mon bébé let's go, bébé Bébé, baby Prosterne-toi devant le boss Le king</t>
+          <t>Auditeurs et auditrices de c'rap de merde Let's go Booba a sorti l'dernier album, ça y est maint'nant, j'peux prendre le trône Vu qu'tout l'monde veut tester mon chrome Oublie les restes, j'veux le filet-mignon, le jus et le beurre Il t'faut le masque et les boules Quies, j'suis le bruit et l'odeur Ts MCs rappent pareil, limite c'st d'la natation synchronisée donc le game veut m'introniser let's go Ils auront pas un rond, re-noi écoute bien, l'avarice, c'est le seul vice qui ne coûte rien Va sous la table, j'distribue les parts vrai, j'ai la fève, j'ai créé Mocabe J'suis la chèvre, cinq mille euros le feat, fais l'numéro, j'prends l'dinero, le shit Oublie pas d'louer le gîte, évidemment, logique What the fuck, qu'on m'explique, tu m'en veux parce que j'fuck ton ex, fils, oublie la jalousie ils ont essayé, ils ont voulu me rabaisser, j'vais raviver les tensions, mon shit c'est un AVC Agenouille-toi devant sa majesté, prends la main et embrasse la bague, les gars m'appellent Notorious Tous mes gens sont prêts, tous mes gens sont frais, que les haineux prennent des notes Appelle-moi Monsieur Epps, oui j'suis pas ton pote nan Souffre quand mes gens et moi on parle en code ? han han Et y a plein de meufs ce soir qui pourraient avoir mon bébé let's go, bébé J'suis Biggie, j'connais Diggy, j'suis pas l'genre à flirt avec la 'sique de Iggy En vacances dans le Midi, Saint-Tropez avec Sean, Puff et Diddy han et ta nana qui m'fait des guiliguilis han Alors donne-moi un peu d'respect, faire rentrer les sous, c'est à ça que je m'évertue Fuir les vices et pratiquer la vertu han, à six ans, mon père m'a acheté mon premier BMX J'en ai fait profiter mes dawgs comme si j'étais DMX En c'qui concerne ma voix, je n'ai aucun complexe, j'traine avec Quentax, tes gens saignent, trainent avec Tampax J'vais les guider, j'vais donner le maximum, j'explose, mets surtout pas le contact histoire vraie J'suis pas un phénomène de mode, j'suis un phénomène dis leur négro Certains d'vos gens se vantent d'avoir fait le même laisse-les parler J'connais pas un re-noi qui aie fait de même, prosterne-toi devant sa majesté, c'mon Agenouille-toi devant sa majesté, prends la main et embrasse la bague, les gars m'appellent Notorious Tous mes gens sont prêts, tous mes gens sont frais, que les haineux prennent des notes Appelle-moi Monsieur Epps, oui j'suis pas ton pote nan Souffre quand mes gens et moi on parle en code ? Eppsito Et y a plein de meufs ce soir qui pourraient avoir mon bébé let's go, bébé Bébé, baby Prosterne-toi devant le boss Le king</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yeah-Yeah, Benjamin Epps est dans le bâtiment Et vous êtes sur le point d'assister à un crime J'ai ramené plein de gens avec moi, et on va goom, let's go C'est le remix baby Auditeurs et auditrices de c'rap de merde Dis leur, c'est le remix Truc de ouf, truc de ouf, goom ! On va les yah, on va les Fumar mata donc je les goom, je ne les fume plus je les goom Je suis le tur-fu, du flow en excès, guette le surplus yes J'ai des katas imprévisibles, nan je n'ai jamais eu de sensei yo Sais pas d'où ça va venir comme une aveugle dans un gangbang Celle-ci était dark, elle était sneaky Donc parle pas à la moyenne, je vise le balle, je vise le Biggie ba-ba-ba-by God's son, je suis touché par la grâce, toi t'étouffe et qu'à la base tu te fais bouffé par la poisse yeah Tout droit sortit de Belgique, sur le track avec Benji Je rappe et fait taire sceptiques, tu rappes t'as le flow d'un Pierre-Yves Merde c'est ballot, mais chacun ses problèmes Négro j'ai du ballon, je suis Chris Waddle à l'OM Tu cherches à nous faire mal, on rit même pas à tes guilis Mec t'es sympa, t'es convivial comme la chorée du tchiriri nouveau doom man Je n'ai pas ton temps envoie un courriel Je dois prendre du liquide avant de prendre de la bouteille shit You might also like Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay J'arrive comme une soucoupe volante dans le ciel oh Comme Marie-Madeleine dans la scène han Tuerie de masse sur la scène oh Des corps de rappeurs dans la Seine rrrra Ils vont restés muselés comme si han Dieu, rapper comme ça, ça vient pas tout seul han Ce genre d'inspi peut pas les chatouiller yah Tout le rap s'essuie, aura la chatte mouillée han Petites sses-fe au han Sur le chemin y'aura des barrages han yeah Rester vrai c'est la base Tôt ou tard la mort arrive et débarrasse han Effa-raciste, effa-nazi Sale caractère comme un blase han Tire les ficelles comme Betty Shabazz Flow de Kingston comme si j'étais Shabba hey Garçon se croit garçon jusqu'à ce qu'une femme le rende garçon han-han Dit que ta Big Bolt comme si je portais le caleçon han-han V'la de coffre de forces de têtes, coupe-têtes comme Brienne de Torth han-han Noyau terrestre sous le torse, goom-tête tous ceux qui riposte han Flow de malade, comme si je me shootais au Covid par intraveineuse Notorious Benji, Queen , Guy s'arrache les veux-che Abidjan, Libreville, troisième il comme il de buf Rap sale pas de bluff, c'est même plus un flow c'est un fleu facile On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay M-I-S, a jamais de foufou Même si mon khoya, j'lui dis qu'est-ce' passe au Amakuru, enculo enculo Mets le papier dans la valise comme si je pars au boulot J'suis algérois comme un chinois, croyant comme un yougo You know, t'es armé mais t'es sous stress Nuage de fumée fait le tour de ma tête, maintenant je suis Ghostface Ghostface J'veux ma money MTN, c'est MTL, trop vite ça te NTM, mais c'est pas pour TTM Ces salopes ont mis le visage, et sur moi ils ont mis l'il J'ai trop faim, je noirci milles feuilles Quand j'ai rappé j'ai mis le feu j'ai mis le feu Je plie le bail, et j'ai Fuck le mec tout bien, vais rien décrit alors j'ai freestyle Je vais les goom, masqué comme MF Doom Je suis dans le labyrinthe de Doom Chargé, salam aleykoum J'ai l'âge de faire une liste de fonds, des placements, d'avoir une femme, des enfants, tous mes déplacements c'est pour la mettre profond sur fond d'instruments Fais le mouv' seulement si tu le sens, garde pas tout sur toi quand tu vends Baisse pas les yeux quand tu mens et partage toujours quand tu prends On t'a dit c'est Gotham, ça part en Statham, salam J'ai besoin de salade, j'écris et je pars en Satam, ma bad Y'a pas de ballades, ça kick, ça veut la palette Macaques, sortis des bas-fonds de la cage Y'a que des sales têtes d'arabes sales têtes d'arabes Chaud comme la lame sur le couteau, les gars cherchent le J'm'en fous des autres j'veux me battre contre meilleurs, Kakaroto On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay Real pour une photo man ouais Il y a les fuck nous, il y a les bluff nous, Corona ouais Nougat zipette, nougat exta', nougat chocolat ouais Poto c'est nous on vit la réalité, comme Sanjiro sans la véracité Devine qui pull up dans ta cité ? Avec un G9 dont on a pas idée Il y a beaucoup au début qui m'ont pas aidé Il y a beaucoup au début qui m'ont pas aidé Mais là, fils de-, dans le sens du poil ils viennent me caresser Seigneur, un jour faudra m'arrêter ouais Pour l'instant je me confesse sans vulgarité sûr Aucun d'eux n'ont ce que j'ai à l'idée nan Sont passés la Sacem de Feu Hallyday ouais Auto, t'as vu ça je sais manier ouais Et j'ai pas taffé que la matinée nan Du rhum et du shit, meilleurs alliés yeah Toi tes narines sont enfarinés Fils de pute, ton lit c'est ta carrière je découpe Je suis passé par derrière je découpe Aujourd'hui, sont choqués poto, mais je pouvais le faire hier à l'aise Ma mère c'est une guerrière , on donne les jours fériés hein-hein Tu dis J'arrive, j'ai une mission, t'inquiètes c'est la dernière On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay Génie performant, violent, mélange Messi et CR Ma zik passe les frontières sans vaccin ni test PCR Laissez moi le faire ouais, pour que les wakis d'ici Négro t'es pas de taille, même si tu rimes en trisyllabique J'ai aiguisé le big yes, me chercher faut pas essayer J'offre aux MCs des serpillères, des échecs ils vont essuyer ah Envoie le beat, dieu des mondes, ma bite est fraîche La concurrence me suce et elle me suce avec des cristaux de menthe Connaît la crise et le manque, donc je dois tracer poto J'ai envie de brasser, comme l'Eglise et les banques Nouvelle école à l'ancienne, on éblouit vos teams Ils peuvent pas prendre la grosse tête face à des guillotines Doigt d'honneur aux moqueurs, au fond la vérité qui sort de vos bouches n'est point supérieur à ce qui sort de mon cur Faut faire le taf, j'ai la 'trise mais, un king né, v'là comment le rap est pris en otage par des pigmés On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay aah</t>
+          <t>Yeah-Yeah, Benjamin Epps est dans le bâtiment Et vous êtes sur le point d'assister à un crime J'ai ramené plein de gens avec moi, et on va goom, let's go C'est le remix baby Auditeurs et auditrices de c'rap de merde Dis leur, c'est le remix Truc de ouf, truc de ouf, goom ! On va les yah, on va les Fumar mata donc je les goom, je ne les fume plus je les goom Je suis le tur-fu, du flow en excès, guette le surplus yes J'ai des katas imprévisibles, nan je n'ai jamais eu de sensei yo Sais pas d'où ça va venir comme une aveugle dans un gangbang Celle-ci était dark, elle était sneaky Donc parle pas à la moyenne, je vise le balle, je vise le Biggie ba-ba-ba-by God's son, je suis touché par la grâce, toi t'étouffe et qu'à la base tu te fais bouffé par la poisse yeah Tout droit sortit de Belgique, sur le track avec Benji Je rappe et fait taire sceptiques, tu rappes t'as le flow d'un Pierre-Yves Merde c'est ballot, mais chacun ses problèmes Négro j'ai du ballon, je suis Chris Waddle à l'OM Tu cherches à nous faire mal, on rit même pas à tes guilis Mec t'es sympa, t'es convivial comme la chorée du tchiriri nouveau doom man Je n'ai pas ton temps envoie un courriel Je dois prendre du liquide avant de prendre de la bouteille shit Rrrra Si tes négros veulent des problèmes, moi j'leur dis pas d'problème J'rentre à la maison me changer et charger l'mac quand même Mais avec ou sans, j'suis dangereux, mon négro on va les manger On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay J'arrive comme une soucoupe volante dans le ciel oh Comme Marie-Madeleine dans la scène han Tuerie de masse sur la scène oh Des corps de rappeurs dans la Seine rrrra Ils vont restés muselés comme si han Dieu, rapper comme ça, ça vient pas tout seul han Ce genre d'inspi peut pas les chatouiller yah Tout le rap s'essuie, aura la chatte mouillée han Petites sses-fe au han Sur le chemin y'aura des barrages han yeah Rester vrai c'est la base Tôt ou tard la mort arrive et débarrasse han Effa-raciste, effa-nazi Sale caractère comme un blase han Tire les ficelles comme Betty Shabazz Flow de Kingston comme si j'étais Shabba hey Garçon se croit garçon jusqu'à ce qu'une femme le rende garçon han-han Dit que ta Big Bolt comme si je portais le caleçon han-han V'la de coffre de forces de têtes, coupe-têtes comme Brienne de Torth han-han Noyau terrestre sous le torse, goom-tête tous ceux qui riposte han Flow de malade, comme si je me shootais au Covid par intraveineuse Notorious Benji, Queen , Guy s'arrache les veux-che Abidjan, Libreville, troisième il comme il de buf Rap sale pas de bluff, c'est même plus un flow c'est un fleu facile On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay M-I-S, a jamais de foufou Même si mon khoya, j'lui dis qu'est-ce' passe au Amakuru, enculo enculo Mets le papier dans la valise comme si je pars au boulot J'suis algérois comme un chinois, croyant comme un yougo You know, t'es armé mais t'es sous stress Nuage de fumée fait le tour de ma tête, maintenant je suis Ghostface Ghostface J'veux ma money MTN, c'est MTL, trop vite ça te NTM, mais c'est pas pour TTM Ces salopes ont mis le visage, et sur moi ils ont mis l'il J'ai trop faim, je noirci milles feuilles Quand j'ai rappé j'ai mis le feu j'ai mis le feu Je plie le bail, et j'ai Fuck le mec tout bien, vais rien décrit alors j'ai freestyle Je vais les goom, masqué comme MF Doom Je suis dans le labyrinthe de Doom Chargé, salam aleykoum J'ai l'âge de faire une liste de fonds, des placements, d'avoir une femme, des enfants, tous mes déplacements c'est pour la mettre profond sur fond d'instruments Fais le mouv' seulement si tu le sens, garde pas tout sur toi quand tu vends Baisse pas les yeux quand tu mens et partage toujours quand tu prends On t'a dit c'est Gotham, ça part en Statham, salam J'ai besoin de salade, j'écris et je pars en Satam, ma bad Y'a pas de ballades, ça kick, ça veut la palette Macaques, sortis des bas-fonds de la cage Y'a que des sales têtes d'arabes sales têtes d'arabes Chaud comme la lame sur le couteau, les gars cherchent le J'm'en fous des autres j'veux me battre contre meilleurs, Kakaroto On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay Real pour une photo man ouais Il y a les fuck nous, il y a les bluff nous, Corona ouais Nougat zipette, nougat exta', nougat chocolat ouais Poto c'est nous on vit la réalité, comme Sanjiro sans la véracité Devine qui pull up dans ta cité ? Avec un G9 dont on a pas idée Il y a beaucoup au début qui m'ont pas aidé Il y a beaucoup au début qui m'ont pas aidé Mais là, fils de-, dans le sens du poil ils viennent me caresser Seigneur, un jour faudra m'arrêter ouais Pour l'instant je me confesse sans vulgarité sûr Aucun d'eux n'ont ce que j'ai à l'idée nan Sont passés la Sacem de Feu Hallyday ouais Auto, t'as vu ça je sais manier ouais Et j'ai pas taffé que la matinée nan Du rhum et du shit, meilleurs alliés yeah Toi tes narines sont enfarinés Fils de pute, ton lit c'est ta carrière je découpe Je suis passé par derrière je découpe Aujourd'hui, sont choqués poto, mais je pouvais le faire hier à l'aise Ma mère c'est une guerrière , on donne les jours fériés hein-hein Tu dis J'arrive, j'ai une mission, t'inquiètes c'est la dernière On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay Génie performant, violent, mélange Messi et CR Ma zik passe les frontières sans vaccin ni test PCR Laissez moi le faire ouais, pour que les wakis d'ici Négro t'es pas de taille, même si tu rimes en trisyllabique J'ai aiguisé le big yes, me chercher faut pas essayer J'offre aux MCs des serpillères, des échecs ils vont essuyer ah Envoie le beat, dieu des mondes, ma bite est fraîche La concurrence me suce et elle me suce avec des cristaux de menthe Connaît la crise et le manque, donc je dois tracer poto J'ai envie de brasser, comme l'Eglise et les banques Nouvelle école à l'ancienne, on éblouit vos teams Ils peuvent pas prendre la grosse tête face à des guillotines Doigt d'honneur aux moqueurs, au fond la vérité qui sort de vos bouches n'est point supérieur à ce qui sort de mon cur Faut faire le taf, j'ai la 'trise mais, un king né, v'là comment le rap est pris en otage par des pigmés On les goom goom, j'arrive sans m'annoncer, j'prends les armes Je les goom goom Membré comme les renois dans les clips blacked, je goom yeah Venu prendre la couronne, pas de compèt' on les goom yeah Dollar dollar bill, y'all Rrrra Goom Rrrra, j'arrive sans m'annoncer, j'prends les armes, je les goom goom Membré comme les renois dans les clips blacked, je goom j'les allume Venu prendre la couronne pas de compèt' on les goom attend cousin Dollar dollar bill, y'all okay aah</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de merde... La rue écoute, les gens cherchent, les ennemis s'planquent donc mon respect est nié C'est l'retour de Bawzini, allumez les chandeliers J'envoie Désiré pour faire ma collecte, j'fais des billets Si j'fais deux aller-retours c'est qu'c'est plié, attaquer ou replier J'bois un café, aucun négro n'pourra m'échappr Et j'ai ramené le coup du chapeau comm Mbappé Sapé donc ta bitch veut me snaper, prend des photos, monte dans l'auto, elle repart, elle est tapée J'suis une star mais j'suis un gangster donc on marche, on est strapés Tes rappeurs me veulent des feats avec des flows éclatés J'arrive en forme comme Koba, un joint et j'enflamme le labo Speed comme la colle du cabo, repose en paix Fabo Devenir leur copain ne m'intéresse pas fuck ça Traîner avec eux ne m'intéresse pas Mes gars slaloment entre les voitures, roulent en Vespa Te mettent des bullets dans la vitre mais ils t'connaissent pas, n'est-ce pas ? Qui dit vrai vrai, qui dit faux ? Qui fait peur aux autres ? Qui fait l'argent ? moi Qui est le lion ? Qui contrôle le zoo ? Qui attaque, qui défend ? Qui défend ? Qui les prend ? Il est temps, il est temps You might also like J'les tiens en joue, j'suis le général, le boss, le pivot J'fais pas d'vidéo de moi avec ma ... comme Griveaux Les bruits d'couloirs me disent, j'suis le secret le mieux gardé J'ai l'impression d'être Jay-Z, ils s'bousculent pour me regarder En vrai, y a dix ans, j'courrais dans l'sable avec mes camarades Maintenant, j'traîne avec des Onika Maraj Tes gars sont sous pression donc ils veulent pas valider ils disent c'est pas mal J'arrive sévère et j'pèse comme le Taj Mahal J'suis tout prêt du but et c'est pas rien, une nappe dans ma chemise Parait qu'tes renois veulent le beef, crois-moi, j'suis pas végétarien J'arrive On a d'la moula à s'faire donc j'y vais, advienne que pourra Comme Isha, j'n'ai confiance qu'en l'élasticité du durag Devenir leur copain ne m'intéresse pas fuck ça Traîner avec eux ne m'intéresse pas Mes gars slaloment entre les voitures, roulent en Vespa oui Te mettent des boulettes dans la vitre mais ils t'connaissent pas, n'est-ce pas ? Qui dit vrai vrai, qui dit faux ? Qui fait peur aux autres ? Qui fait l'argent ? Epps Qui est le lion ? Qui contrôle le zoo ? Qui attaque oui, qui défend ? Qui défend ? swing Qui les prend ? oui Il est temps, il est temps</t>
+          <t>Auditeurs et auditrices de c'rap de merde... La rue écoute, les gens cherchent, les ennemis s'planquent donc mon respect est nié C'est l'retour de Bawzini, allumez les chandeliers J'envoie Désiré pour faire ma collecte, j'fais des billets Si j'fais deux aller-retours c'est qu'c'est plié, attaquer ou replier J'bois un café, aucun négro n'pourra m'échappr Et j'ai ramené le coup du chapeau comm Mbappé Sapé donc ta bitch veut me snaper, prend des photos, monte dans l'auto, elle repart, elle est tapée J'suis une star mais j'suis un gangster donc on marche, on est strapés Tes rappeurs me veulent des feats avec des flows éclatés J'arrive en forme comme Koba, un joint et j'enflamme le labo Speed comme la colle du cabo, repose en paix Fabo Devenir leur copain ne m'intéresse pas fuck ça Traîner avec eux ne m'intéresse pas Mes gars slaloment entre les voitures, roulent en Vespa Te mettent des bullets dans la vitre mais ils t'connaissent pas, n'est-ce pas ? Qui dit vrai vrai, qui dit faux ? Qui fait peur aux autres ? Qui fait l'argent ? moi Qui est le lion ? Qui contrôle le zoo ? Qui attaque, qui défend ? Qui défend ? Qui les prend ? Il est temps, il est temps J'les tiens en joue, j'suis le général, le boss, le pivot J'fais pas d'vidéo de moi avec ma ... comme Griveaux Les bruits d'couloirs me disent, j'suis le secret le mieux gardé J'ai l'impression d'être Jay-Z, ils s'bousculent pour me regarder En vrai, y a dix ans, j'courrais dans l'sable avec mes camarades Maintenant, j'traîne avec des Onika Maraj Tes gars sont sous pression donc ils veulent pas valider ils disent c'est pas mal J'arrive sévère et j'pèse comme le Taj Mahal J'suis tout prêt du but et c'est pas rien, une nappe dans ma chemise Parait qu'tes renois veulent le beef, crois-moi, j'suis pas végétarien J'arrive On a d'la moula à s'faire donc j'y vais, advienne que pourra Comme Isha, j'n'ai confiance qu'en l'élasticité du durag Devenir leur copain ne m'intéresse pas fuck ça Traîner avec eux ne m'intéresse pas Mes gars slaloment entre les voitures, roulent en Vespa oui Te mettent des boulettes dans la vitre mais ils t'connaissent pas, n'est-ce pas ? Qui dit vrai vrai, qui dit faux ? Qui fait peur aux autres ? Qui fait l'argent ? Epps Qui est le lion ? Qui contrôle le zoo ? Qui attaque oui, qui défend ? Qui défend ? swing Qui les prend ? oui Il est temps, il est temps</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yeah Yeah yeah yeah yeah Auditeurs et auditrices de c'rap de merde Yeah Mocabe Yeah J'suis celui qu'les gens attendaient J'ai grandi à Bellevue alors tu sais c'que je vendais Ta salope était à g'noux devant moi quand je bandais J'étais déjà célèbre à l'école, mon nom ils scandaient Ton rappeur préféré me kiffe donc il fait l'fayot J'veux inscrire mon nom dans les livres comme San Payo C'est sûr on pourra pas s'aimer J'suis comm un gode dans ta chatte, mais tu pourras blasphémer Pour tous ls autres, respectez Elohim, c'est un putsch J'suis le nouveau régime J'voyage en première classe, ma voisine me demande si j'suis footballeur han, han Non salope, j'suis banquier So Jermaine, tous mes négros vivent le rêve, le bon pied Man, crois-moi j'ai le mojo J'traîne avec des babtous plus balaises que Tyson J'travaille pour les Dow Jones, smooth comme Dyson You might also like J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Ma mère m'a pas mis au monde pour bailler Tes renois me cherchent les beefs, mec j'vais grailler j'ai l'seum J'veux la bitch pas la sape de Kanye yeah J'veux la villa pas l'appart', j'vais brailler J'ai promis qu'j'allais les planter, du coup j'le f'rai du coup j'le f'rai Rien d'inventé, tout est vrai L'équipe, les fringues, les femmes, les bandits Les clips, les flingues, les chattes, les on dit Dis-leur quand je tire je f'rai comme Gambino Mais avant je charge, tcht-tcht, comme Lino J'suis sur le point d'exploser, j'vais regarder un match de la Lazio en rêvant d'dévaliser le Bellagio L'argent est là faut le take, crois-moi ou pas faut les pecs Sinon mon négro c'est le blackout Ça tombe mal quand ta nana m'appelle papa Alors que tout c'qu'un renoi veut c'est le plata J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Benjamin Epps J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Yeah yeah Dis-moi combien d'fois ? Combien d'fois j'vais encore devoir le dire ? J'crois qu'pour moi c'est clair, négro J'suis l'un des meilleurs de tous les temps, c'est clair Intouchable Yeah J'vois des gens débattre sur qui est l'meilleur MC ? Hinhin J'te laisse répondre Qu'est-ce que tes gens vont m'apprendre dis-moi ? Comment faire mon truc ?</t>
+          <t>Yeah Yeah yeah yeah yeah Auditeurs et auditrices de c'rap de merde Yeah Mocabe Yeah J'suis celui qu'les gens attendaient J'ai grandi à Bellevue alors tu sais c'que je vendais Ta salope était à g'noux devant moi quand je bandais J'étais déjà célèbre à l'école, mon nom ils scandaient Ton rappeur préféré me kiffe donc il fait l'fayot J'veux inscrire mon nom dans les livres comme San Payo C'est sûr on pourra pas s'aimer J'suis comm un gode dans ta chatte, mais tu pourras blasphémer Pour tous ls autres, respectez Elohim, c'est un putsch J'suis le nouveau régime J'voyage en première classe, ma voisine me demande si j'suis footballeur han, han Non salope, j'suis banquier So Jermaine, tous mes négros vivent le rêve, le bon pied Man, crois-moi j'ai le mojo J'traîne avec des babtous plus balaises que Tyson J'travaille pour les Dow Jones, smooth comme Dyson J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Ma mère m'a pas mis au monde pour bailler Tes renois me cherchent les beefs, mec j'vais grailler j'ai l'seum J'veux la bitch pas la sape de Kanye yeah J'veux la villa pas l'appart', j'vais brailler J'ai promis qu'j'allais les planter, du coup j'le f'rai du coup j'le f'rai Rien d'inventé, tout est vrai L'équipe, les fringues, les femmes, les bandits Les clips, les flingues, les chattes, les on dit Dis-leur quand je tire je f'rai comme Gambino Mais avant je charge, tcht-tcht, comme Lino J'suis sur le point d'exploser, j'vais regarder un match de la Lazio en rêvant d'dévaliser le Bellagio L'argent est là faut le take, crois-moi ou pas faut les pecs Sinon mon négro c'est le blackout Ça tombe mal quand ta nana m'appelle papa Alors que tout c'qu'un renoi veut c'est le plata J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Benjamin Epps J'suis un animal, j'élimine les gens qui m'importunent Benjamin Epps Dans la malle y a la mula, mets la mula dans la malle, yup Benjamin Epps Rangez les flingues, c'est le king, oui tu connais mon name LCS dis-leur qu'on va fuck le game Bellevue sur le maillot, oui tu connais l'emblème Yeah yeah Dis-moi combien d'fois ? Combien d'fois j'vais encore devoir le dire ? J'crois qu'pour moi c'est clair, négro J'suis l'un des meilleurs de tous les temps, c'est clair Intouchable Yeah J'vois des gens débattre sur qui est l'meilleur MC ? Hinhin J'te laisse répondre Qu'est-ce que tes gens vont m'apprendre dis-moi ? Comment faire mon truc ?</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Auditeurs et auditrices de c'rap de merde... Yeah J'roule dans la ville avec mes couilles pleines For my peop's comme Kool Shen Donc je joue aux stars, la seule chose qui manque c'est la Jaguar J'fais beaucoup de sport, je bois agua Polenta, Bordeaux, cigare, impossible de finir gordo J'suis un homme de parole donc les rapports sont cordiaux Ils veulent qu'j'm'aligne, ils veulent m voir tenir le cordeau Étrang mais mon paradis est noir comme Georgio Moi, j'me cherche, j'peux pas t'aider si tu dors, Djo Les amis ont changé, les filles dans mes DM J'savais qu'j'allais le faire de puis le CM, frère j'ai vu le ciel J'sais que j'suis pas l'seul mais fuck ça, j'crois qu'on est féliz Les opportunités, va falloir qu'on les chérisse J'viens d'acheter un billet d'avion à ma maman pour les Bélize J'dois le faire tous les ans alors mec il m'faut les lingots Oui mon négro faut les lingots Ma bitch veut les lingots Tous mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots You might also like J'suis arrivé comme un ouragan, fuck une envie de plaire J'vais payer pour tout c'que mes négros ont envie de faire Et c'que j'suis capable de montrer, en ont vu le tiers J'peux pas laisser tomber les gens qui checkent Ils ont mis leur espoir en Yankee Kess, alors je rappe for'em Les remercie d'm'avoir donné une plateforme Et grâce à eux, j'suis sur le point d'dev'nir le sommet comme le Cap Horn L'opposé des stéréotypes genre les blacks dorment J'ai vingt-et-un frères et surs, je suis béni Je sais c'est incroyable, marcher dans mes pompes, c'est un voyage Rentrer dans ma tête, c'est du génie Pour moi le futur, c'est une promesse Wallaye billaye, impatient de faire le grand pas Si tu nous regardes de haut, c'est qu'tu comprends pas Longue vie aux débrouillards, longue vie aux hustlers Dans tous les cas, j'y crois dur comme fer, c'est parce que j'veux les lingots Oui mon négro faut les lingots Ma bitch veut les lingots Tous mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots Oui mes négros veulent les lingots Oui mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots</t>
+          <t>Auditeurs et auditrices de c'rap de merde... Yeah J'roule dans la ville avec mes couilles pleines For my peop's comme Kool Shen Donc je joue aux stars, la seule chose qui manque c'est la Jaguar J'fais beaucoup de sport, je bois agua Polenta, Bordeaux, cigare, impossible de finir gordo J'suis un homme de parole donc les rapports sont cordiaux Ils veulent qu'j'm'aligne, ils veulent m voir tenir le cordeau Étrang mais mon paradis est noir comme Georgio Moi, j'me cherche, j'peux pas t'aider si tu dors, Djo Les amis ont changé, les filles dans mes DM J'savais qu'j'allais le faire de puis le CM, frère j'ai vu le ciel J'sais que j'suis pas l'seul mais fuck ça, j'crois qu'on est féliz Les opportunités, va falloir qu'on les chérisse J'viens d'acheter un billet d'avion à ma maman pour les Bélize J'dois le faire tous les ans alors mec il m'faut les lingots Oui mon négro faut les lingots Ma bitch veut les lingots Tous mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots J'suis arrivé comme un ouragan, fuck une envie de plaire J'vais payer pour tout c'que mes négros ont envie de faire Et c'que j'suis capable de montrer, en ont vu le tiers J'peux pas laisser tomber les gens qui checkent Ils ont mis leur espoir en Yankee Kess, alors je rappe for'em Les remercie d'm'avoir donné une plateforme Et grâce à eux, j'suis sur le point d'dev'nir le sommet comme le Cap Horn L'opposé des stéréotypes genre les blacks dorment J'ai vingt-et-un frères et surs, je suis béni Je sais c'est incroyable, marcher dans mes pompes, c'est un voyage Rentrer dans ma tête, c'est du génie Pour moi le futur, c'est une promesse Wallaye billaye, impatient de faire le grand pas Si tu nous regardes de haut, c'est qu'tu comprends pas Longue vie aux débrouillards, longue vie aux hustlers Dans tous les cas, j'y crois dur comme fer, c'est parce que j'veux les lingots Oui mon négro faut les lingots Ma bitch veut les lingots Tous mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots Oui mes négros veulent les lingots Oui mes négros veulent les lingots Longue vie aux débrouillards, longue vie aux hustlers J'y crois dur comme fer, c'est parce que j'veux les lingots Mes négros veulent les lingots</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LCS monte le son, je sens la vibe ! J'suis l'dernier de mon espèce, essaie de m'couler Insupportable de voir un god's son rouler J'étais déjà en colère dans les couilles de mon padre Différent donc le rap game peut pas m'encadrer Vos trucs bouncy ne m'entraînent pas Les gens ont peur de c'qu'ils ne comprennent pas Babé disait fais la moula et fuck si les gens t'aimnt pas Jésus avait des ennemis aussi L'plus important, c'st qu'tu pèses et portes le remedy aussi Idi Amin, ils m'verront d'ici, j'suis un king comme Reddy Amisi Trop relax donc c'est sûr, tu vas morfler Tes ennemis peuvent miser double sur ta mort player Observe les bévues, j'suis impatient de voir c'que tes gens ont prévu Parce que l'truc du méchant renoi oui c'est vu, c'est vu Ramène la bouteille, j'suis avec LC Prend un verre, mon négro, tu peux m'remercier Prend un verre, relax et fais les billets Prend un verre, relax et fais les billets On fait les You might also like Ils disent toujours que les premiers s'ront les derniers Moula, mon gars j'te promets Billets, renoi j'te promets Relax, fais les deniers J'suis plutôt confiant sur mon destino J'suis un escroc, j'suis l'genre à vendre des glaces aux esquimaux Pas d'broutilles, pas de tatoos, pas de Gucci Scarface depuis les crocs de Lucky Évidemment, j'suis indépendant, renoi relax Si j'leur donne un peu à manger, c'est pour ramener un max J'suis un God mon négro, paie ta dette envers Eppsito Pas de compét', aucun d'ces MCs ne m'excite Aucun d'ces niggas n'peut fuck avec le lexique J'sais pas si j'suis assez clair, attends je m'explique J'ai dit qu'j'allais prendre tes rappeurs préférés J'suis pas l'genre à rev'nir sur des menaces proférées Ta meuf a donné la tête, a mis les dents Alors j'm'allonge et j'relaxe négro, han Si y a pas d'billets, n'y pense même pas, han han Et j'comprendrais si la France m'aime pas, Eppsito Prend un verre, relax et fais les billets Prend un verre, relax et fais les billets On fait les Ils disent toujours que les premiers s'ront les derniers Moula, mon gars j'te promets Billets, renoi j'te promets Relax, fais les deniers1</t>
+          <t>LCS monte le son, je sens la vibe ! J'suis l'dernier de mon espèce, essaie de m'couler Insupportable de voir un god's son rouler J'étais déjà en colère dans les couilles de mon padre Différent donc le rap game peut pas m'encadrer Vos trucs bouncy ne m'entraînent pas Les gens ont peur de c'qu'ils ne comprennent pas Babé disait fais la moula et fuck si les gens t'aimnt pas Jésus avait des ennemis aussi L'plus important, c'st qu'tu pèses et portes le remedy aussi Idi Amin, ils m'verront d'ici, j'suis un king comme Reddy Amisi Trop relax donc c'est sûr, tu vas morfler Tes ennemis peuvent miser double sur ta mort player Observe les bévues, j'suis impatient de voir c'que tes gens ont prévu Parce que l'truc du méchant renoi oui c'est vu, c'est vu Ramène la bouteille, j'suis avec LC Prend un verre, mon négro, tu peux m'remercier Prend un verre, relax et fais les billets Prend un verre, relax et fais les billets On fait les Ils disent toujours que les premiers s'ront les derniers Moula, mon gars j'te promets Billets, renoi j'te promets Relax, fais les deniers J'suis plutôt confiant sur mon destino J'suis un escroc, j'suis l'genre à vendre des glaces aux esquimaux Pas d'broutilles, pas de tatoos, pas de Gucci Scarface depuis les crocs de Lucky Évidemment, j'suis indépendant, renoi relax Si j'leur donne un peu à manger, c'est pour ramener un max J'suis un God mon négro, paie ta dette envers Eppsito Pas de compét', aucun d'ces MCs ne m'excite Aucun d'ces niggas n'peut fuck avec le lexique J'sais pas si j'suis assez clair, attends je m'explique J'ai dit qu'j'allais prendre tes rappeurs préférés J'suis pas l'genre à rev'nir sur des menaces proférées Ta meuf a donné la tête, a mis les dents Alors j'm'allonge et j'relaxe négro, han Si y a pas d'billets, n'y pense même pas, han han Et j'comprendrais si la France m'aime pas, Eppsito Prend un verre, relax et fais les billets Prend un verre, relax et fais les billets On fait les Ils disent toujours que les premiers s'ront les derniers Moula, mon gars j'te promets Billets, renoi j'te promets Relax, fais les deniers1</t>
         </is>
       </c>
     </row>
